--- a/resource/表現 - コピー.xlsx
+++ b/resource/表現 - コピー.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\desktop\palabras\excel\mbr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\tl\CREATE\MBR\MiBocaRecuerda\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570DBC78-A961-4F56-97CD-74DE0FDE49AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63D52EC-6A0D-4438-8BA2-12B48A7AB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="2505" windowWidth="18540" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28860" yWindow="1620" windowWidth="23505" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>es</t>
     <phoneticPr fontId="1"/>
@@ -336,6 +337,25 @@
   <si>
     <t>[[Circula^Corre] el rumor de que el primer ministro va a anunciar esta tarde su dimisión.^Se rumorea que el primer ministro va a anunciar esta tarde su dimisión.]</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[testA(a)^testB(b)^testC]</t>
   </si>
 </sst>
 </file>
@@ -715,12 +735,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B745EE-01FC-4076-BA44-A0FF48D248D7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="str">
+        <f>$B$1</f>
+        <v>testu</v>
+      </c>
+      <c r="C2" t="str">
+        <f>$C$1</f>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D2">
+        <f>$D$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B10" si="0">$B$1</f>
+        <v>testu</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C10" si="1">$C$1</f>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="2">$D$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>testu</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>testu</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>testu</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>testu</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>testu</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>testu</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>testu</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>[testA(a)^testB(b)^testC]</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -759,6 +933,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="46" spans="4:4">
       <c r="D46" s="1"/>
     </row>
@@ -812,7 +997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFD90E9-55DF-46F2-9356-9B902BDAD9BF}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -999,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F2F4DD-C2E7-4507-A25E-543202D3F4FC}">
   <dimension ref="C3:D14"/>
   <sheetViews>
